--- a/sorular Guney.xlsx
+++ b/sorular Guney.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -408,9 +408,6 @@
         <v>SORULAR</v>
       </c>
       <c r="B1" t="str">
-        <v>GİTTİĞİ RAPOR</v>
-      </c>
-      <c r="C1" t="str">
         <v>CEVAP</v>
       </c>
     </row>
@@ -544,17 +541,407 @@
         <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B106"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -570,145 +957,1365 @@
         <v>CEVAP</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
       </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşterileri Özelinde Tonaj Raporu
+          </v>
+      </c>
       <c r="C2" t="str">
-        <v>📊 Bu süreç için tanımlı rapor bulunamadı. Lütfen mevcut raporlarınızı kontrol edin veya farklı bir süreç seçerek tekrar deneyin.</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>Son 12 ayda en yüksek tonaj "KADOOĞLU YAĞ SANAYİ VE TİCARET A.Ş.(2016)" ile 1,011,648.69 ton olarak kaydedilmiştir.</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
       </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
       <c r="C3" t="str">
-        <v>📊 Bu süreç için tanımlı rapor bulunamadı. Lütfen mevcut raporlarınızı kontrol edin veya farklı bir süreç seçerek tekrar deneyin.</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>En yüksek tonajı taşıyan şube Adana Merkez, en düşük performanslı şube ise bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam 224 kayıt bulundu:
+1. Firma Adı: 35 EZ 548/ERKAN GİRGİN - Vade Tarihi: 30.01.2025 - Bakiye (₺): 750
+2. Firma Adı: 5K 3C İNŞAAT TAR.NAK.İML.SAN.TİC.LTD.ŞTİ. - Vade Tarihi: 01.03.2021 - Bakiye (₺): 95.155,38
+3. Firma Adı: ABALIOĞLU LEZİTA GIDA SANAYİ A.Ş. - Vade Tarihi: 24.04.2021 - Bakiye (₺): 43.616
+4. Firma Adı: ABALIOĞLU YAĞ SAN.VE TİC.A.Ş. - Vade Tarihi: 01.01.2021 - Bakiye (₺): 2.451.806,45
+5. Firma Adı: ACAR YAĞ GIDA VE TAR. İŞLET.SAN.TİC.LTD.ŞTİ. - Vade Tarihi: 25.02.2021 - Bakiye (₺): 116,43
+... and 219 more records</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C5" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi günleri şu şekildedir: 35 EZ 548/ERKAN GİRGİN: 231, 5K 3C İNŞAAT TAR.NAK.İML.SAN.TİC.LTD.ŞTİ.: 1,719, ABALIOĞLU LEZİTA GIDA SANAYİ A.Ş.: 1,608, ABALIOĞLU YAĞ SAN.VE TİC.A.Ş.: 1,721, ACAR YAĞ GIDA VE TAR. İŞLET.SAN.TİC.LTD.ŞTİ.: 1,666, ACH DIŞ TİCARET SAN.VE TİC.A.Ş.: 784, ACR AKARYAKIT MAD.İNŞ.G.MENK.NAK.OTOM.İTH.İHR.SAN.TİC.LTD.ŞTİ.(120): 1,693, ADANA ÇETİN MOTORS OTOMOTİV TARIM SANAYİ VE TİC.LTD.ŞTİ.: 112, AHMETHAN ORMAN ÜRÜN. İTH. İHR. SAN. VE TİC. LTD.ŞTİ.: 248 ve AKÇA KİMYEVİ MADDELER NAKLİYAT TİC.VE SAN.A.Ş.: 1,225 gün olarak belirlenmiştir!</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşterileri Özelinde Tonaj Raporu
+          </v>
+      </c>
+      <c r="C6" t="str">
+        <v>Hi there! It looks like all the listed customers have a total tonnage but no balance, and their risk status is normal.</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C7" t="str">
+        <v>Özmal araçların aylık ortalama sefer sayısı yaklaşık 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C8" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasında hiç fark yok, yani 0 adet.</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C9" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasında hiç fark yok, yani 0 adet.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C10" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasında hiç fark yok, yani 0 adet.</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C11" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasında hiç fark yok, yani 0 adet.</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="str">
+        <v>GİTTİĞİ RAPOR ALINAMADI</v>
+      </c>
+      <c r="C12" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasında hiç fark yok, yani 0 adet.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C13" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C14" t="str">
+        <v>Boşta bekleyen araç sayısı 130 adet. Son konumları arasında Adana, İzmir ve Mersin gibi şehirler bulunuyor.</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C15" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C16" t="str">
+        <v>Özmal araç başına ortalama yükleme miktarı 1.430,25 kg, kiralık araç başına ise 777,27 kg'dır.</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C17" t="str">
+        <v>Toplam müşteri bakiyesi 14.861,72 TL, vadesi geçmiş bakiye tutarı ise 17.368,17 TL'dir.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>Çek borçlarımın vade dağılımı nasıl?</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Çek Senet Takip Raporu
+          </v>
+      </c>
+      <c r="C18" t="str">
+        <v>... ve 15 kayıt daha</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kiralık Kar Zarar Raporu
+          </v>
+      </c>
+      <c r="C19" t="str">
+        <v>HELLO_TEST</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C20" t="str">
+        <v>Özmal araç ciro toplamı 446.700,12 TL, kiralık araç ciro toplamı ise 156.913,23 TL'dir. Özmal araçların cirosu kiralık araçların cirosundan oldukça yüksektir.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C21" t="str">
+        <v>... ve 789 kayıt daha</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C22" t="str">
+        <v>Aylık ortalama sefer sayısı 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık Cari Hesap Kümülatif Bakiye ve Trend Raporu
+          </v>
+      </c>
+      <c r="C23" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C24" t="str">
+        <v>Son 3 yılda özmal araç verimliliği azalmıştır. 2024'te verimlilik oranı %9,41, 2025'te ise %9,40'tır.</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C25" t="str">
+        <v>... ve 997 kayıt daha</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C26" t="str">
+        <v>... ve 2 kayıt daha</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
       </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi Taksit Ödemeleri Raporu
+          </v>
+      </c>
+      <c r="C27" t="str">
+        <v>Önümüzdeki 1 ay kredi ödemeleri ve çek ödemeleri toplam tutarı 102.440.350,68 TL'dir.</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşterileri Özelinde Tonaj Raporu
+          </v>
+      </c>
+      <c r="C28" t="str">
+        <v>... ve 326 kayıt daha</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C29" t="str">
+        <v>En yüksek tonajlı şube Adana Merkez, toplam 5.906.223 TL tonaj ile birinci sırada. En düşük performanslı şube ise Düzce Şubesi (Pakmaya) ile 15 tonajla sonuncu sırada bulunuyor.</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C30" t="str">
+        <v>En yüksek bakiye müşterisi ve en yüksek vadesi geçmiş borcu olan müşteri "CHRYSO-KAT KATKI MALZEMELERİ SAN. VE TİC. AŞ."dır.</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C31" t="str">
+        <v>... ve 221 kayıt daha</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C32" t="str">
+        <v>... ve 221 kayıt daha</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C33" t="str">
+        <v>Özmal araçların aylık ortalama sefer sayısı 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C34" t="str">
+        <v>... ve 362 kayıt daha</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C35" t="str">
+        <v>Özmal araçların toplam tonajı 23.822.152 TL'dir. Kiralık araç için tonaj bilgisi bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+      <c r="B36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C36" t="str">
+        <v>... ve 991 kayıt daha</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C37" t="str">
+        <v>... ve 543 kayıt daha</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C38" t="str">
+        <v>... ve 232 kayıt daha</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C39" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C40" t="str">
+        <v>Boşta bekleyen araç sayısı 0, son konumları bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C41" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C42" t="str">
+        <v>Özmal ve kiralık araç başına ortalama yükleme miktarı 19.970,96 TL'dir.</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C43" t="str">
+        <v>Toplam müşteri bakiyesi 158.084.334,98 TL, vadesi geçmiş bakiye tutarı ise 90.094.633,65 TL'dir.</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Çek Senet Takip Raporu
+          </v>
+      </c>
+      <c r="C44" t="str">
+        <v>... ve 4 kayıt daha</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+      <c r="B45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kiralık Kar Zarar Raporu
+          </v>
+      </c>
+      <c r="C45" t="str">
+        <v>HELLO_TEST</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C46" t="str">
+        <v>Özmal araç cirosu 444.025,86 TL, kiralık araç cirosu ise bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+      <c r="B47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C47" t="str">
+        <v>Yıllık tonaj artış/azalış oranı hesaplanamıyor. Bu raporda bu bilgiye ulaşmak mümkün değil.</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+      <c r="B48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C48" t="str">
+        <v>Aylık ortalama sefer sayısı değişimi 19,97 olarak hesaplanmıştır.</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+      <c r="B49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık Cari Hesap Kümülatif Bakiye ve Trend Raporu
+          </v>
+      </c>
+      <c r="C49" t="str">
+        <v>En yüksek müşteri bakiyesi 2025 yılında 158.022.796,54 TL olarak kaydedilmiştir.</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+      <c r="B50" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C50" t="str">
+        <v>... ve 3 kayıt daha</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+      <c r="B51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C51" t="str">
+        <v>... ve 997 kayıt daha</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+      <c r="B52" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C52" t="str">
+        <v>... ve 2 kayıt daha</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+      <c r="B53" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi İcmal Raporu
+          </v>
+      </c>
+      <c r="C53" t="str">
+        <v>Önümüzdeki 1 ay için kredi ve çek ödemeleri toplam tutarı bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+      <c r="B54" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşterileri Özelinde Tonaj Raporu
+          </v>
+      </c>
+      <c r="C54" t="str">
+        <v>... ve 326 kayıt daha</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+      <c r="B55" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C55" t="str">
+        <v>En yüksek tonajlı şube Adana Merkez, toplam tonajı 5.906.223 TL. En düşük performanslı şube ise Düzce Şubesi (Pakmaya) ve toplam tonajı 15 TL.</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+      <c r="B56" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C56" t="str">
+        <v>En yüksek müşteri bakiyesi 45.095.676,29 TL ile CHRYSO-KAT KATKI MALZEMELERİ SAN. VE TİC. AŞ.'ye aittir. Aynı firma, 19.390.451,40 TL tutarında en yüksek vadesi geçmiş borca da sahiptir.</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+      <c r="B57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C57" t="str">
+        <v>... ve 221 kayıt daha</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+      <c r="B58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C58" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+      <c r="B59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C59" t="str">
+        <v>Özmal araçların aylık ortalama sefer sayısı 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+      <c r="B60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C60" t="str">
+        <v>En fazla sefer yapan araç ile en az sefer yapan araç arasındaki sefer sayısı farkı 98'dir.</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+      <c r="B61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C61" t="str">
+        <v>Kiralık araçların toplam tonajı bulunmuyor. Özmal araçların toplam tonajı ise 23.243.737,14 ton.</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+      <c r="B62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C62" t="str">
+        <v>... ve 997 kayıt daha</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+      <c r="B63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C63" t="str">
+        <v>... ve 537 kayıt daha</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+      <c r="B64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C64" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+      <c r="B65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C65" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+      <c r="B66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C66" t="str">
+        <v>Boşta bekleyen araç sayısı 125 adet. Son konumlar arasında Adana, İstanbul ve İzmir gibi şehirler bulunuyor.</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+      <c r="B67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C67" t="str">
+        <v>... ve 13 kayıt daha</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+      <c r="B68" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C68" t="str">
+        <v>Özmal araç başına ortalama yükleme miktarı 26.665,80 TL'dir. Kiralık araç için veri bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+      <c r="B69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C69" t="str">
+        <v>Toplam müşteri bakiyesi 158.084.334,98 TL, vadesi geçmiş bakiye tutarı ise 90.094.633,65 TL'dir.</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+      <c r="B70" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Çek Senet Takip Raporu
+          </v>
+      </c>
+      <c r="C70" t="str">
+        <v>... ve 4 kayıt daha</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+      <c r="B71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kiralık Kar Zarar Raporu
+          </v>
+      </c>
+      <c r="C71" t="str">
+        <v>HELLO_TEST</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+      <c r="B72" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C72" t="str">
+        <v>Özmal araç cirosu 440.385,62 TL, kiralık araç cirosu ise bulunmuyor.</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+      <c r="B73" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C73" t="str">
+        <v>... ve 789 kayıt daha</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+      <c r="B74" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C74" t="str">
+        <v>Aylık ortalama sefer sayısı 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+      <c r="B75" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık Cari Hesap Kümülatif Bakiye ve Trend Raporu
+          </v>
+      </c>
+      <c r="C75" t="str">
+        <v>Müşteri bakiyesi en yüksek yıl 2025 olup, toplam bakiye 158.022.796,54 TL'dir.</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+      <c r="B76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C76" t="str">
+        <v>... ve 13 kayıt daha</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+      <c r="B77" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C77" t="str">
+        <v>En çok artış gösteren şube Adana Merkez, 703.654,46 ton artış yaşadı. En çok düşüş yaşayan şube ise Adana Şirket Araçları, 1.682.191,50 ton azaldı.</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+      <c r="B78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C78" t="str">
+        <v>... ve 2 kayıt daha</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi Taksit Ödemeleri Raporu
+          </v>
+      </c>
+      <c r="C79" t="str">
+        <v>Önümüzdeki 1 ay kredi ve çek ödemeleri toplam tutarı 102.440.350,68 TL'dir.</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Son 12 ayda en yüksek tonajı hangi müşteri hangisi ?</v>
+      </c>
+      <c r="B80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşterileri Özelinde Tonaj Raporu
+          </v>
+      </c>
+      <c r="C80" t="str">
+        <v>Son 12 ayda en yüksek tonaj müşteri Kadooğlu Yağ Sanayi ve Ticaret A.Ş. oldu ve toplam 448.253,19 ton malzeme aldı.</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Hangi şubem en yüksek tonajı taşıyor, hangi şube en düşük performansta?</v>
+      </c>
+      <c r="B81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C81" t="str">
+        <v>... ve 13 kayıt daha</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Hangi müşterimin bakiyesi en yüksek, hangisinin vadesi geçmiş borcu en fazla</v>
+      </c>
+      <c r="B82" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C82" t="str">
+        <v>... ve 221 kayıt daha</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Müşteri bazında ortalama ödeme vadesi kaç gün?</v>
+      </c>
+      <c r="B83" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C83" t="str">
+        <v>... ve 221 kayıt daha</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Tonaj ve bakiye karşılaştırmasında riskli müşteriler hangileri?</v>
+      </c>
+      <c r="B84" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C84" t="str">
+        <v>... ve 145 kayıt daha</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Özmal araçlarımın aylık ortalama sefer sayısı nedir?</v>
+      </c>
+      <c r="B85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C85" t="str">
+        <v>Özmal araçların aylık ortalama sefer sayısı 19,97 adet.</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>En fazla sefer yapan araç ile en az yapan araç arasındaki fark nedir?</v>
+      </c>
+      <c r="B86" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C86" t="str">
+        <v>... ve 362 kayıt daha</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Kiralık araçların toplam tonajı, özmal araçlara kıyasla ne kadar?</v>
+      </c>
+      <c r="B87" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C87" t="str">
+        <v>Kiralık araçların toplam tonajı bulunmuyor. Özmal araçların toplam tonajı ise 23.243.737,14 ton.</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Hangi araçların taşıma kapasitesi sürekli tanımlı kapasite altında kalıyor?</v>
+      </c>
+      <c r="B88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C88" t="str">
+        <v>... ve 997 kayıt daha</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Araç bazlı kilometre başına tonaj verimliliği nedir?</v>
+      </c>
+      <c r="B89" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C89" t="str">
+        <v>... ve 537 kayıt daha</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Şu an aktif seferde olan araçlar hangi konumlarda?</v>
+      </c>
+      <c r="B90" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C90" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Araçların taşıdığı yüklerin toplam miktarı nedir (yük cinsine göre) ?</v>
+      </c>
+      <c r="B91" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C91" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Boşta bekleyen araç sayısı kaç, bunların son konumları nerede</v>
+      </c>
+      <c r="B92" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Detaylı Araç Durum ve Filo Raporu
+          </v>
+      </c>
+      <c r="C92" t="str">
+        <v>Boşta bekleyen araç sayısı 125. Son konumları arasında Adana, Kocaeli, İzmir ve Gaziantep gibi şehirler bulunuyor.</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Hangi yük türleri daha çok hangi şubeden çıkıyor?</v>
+      </c>
+      <c r="B93" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aktif Siparişlerin Ürün Türü Raporu
+          </v>
+      </c>
+      <c r="C93" t="str">
+        <v>... ve 38 kayıt daha</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Özmal ve Kiralık Araç başına ortalama yükleme miktarı nedir?</v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C94" t="str">
+        <v>Özmal araç başına ortalama yükleme miktarı 26.670 TL, kiralık araç başına ise 26.971 TL'dir.</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Toplam müşteri bakiyem ne kadar, bunun ne kadarı vadesi geçmiş?</v>
+      </c>
+      <c r="B95" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C95" t="str">
+        <v>Toplam müşteri bakiyesi 158.084.334,98 TL, vadesi geçmiş tutar ise 90.094.633,65 TL'dir.</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Çek borçlarımın vade dağılımı nasıl?</v>
+      </c>
+      <c r="B96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Çek Senet Takip Raporu
+          </v>
+      </c>
+      <c r="C96" t="str">
+        <v>... ve 3 kayıt daha</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>son 2ayda kiralık araçlara toplamda ne kadar ödeme yapmışım?</v>
+      </c>
+      <c r="B97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kiralık Kar Zarar Raporu
+          </v>
+      </c>
+      <c r="C97" t="str">
+        <v>HELLO_TEST</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Özmal araçların toplam cirosu ile kiralık araç cirosu kıyaslandığında durumum nedir?</v>
+      </c>
+      <c r="B98" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kiralık Kar Zarar Raporu
+          </v>
+      </c>
+      <c r="C98" t="str">
+        <v>HELLO_TEST</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>2021’den bu yana yıllık tonaj artış/azalış oranım nedir</v>
+      </c>
+      <c r="B99" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C99" t="str">
+        <v>... ve 789 kayıt daha</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Aylık ortalama sefer sayılarındaki değişim nasıl</v>
+      </c>
+      <c r="B100" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araçların Tamamlamış olduğu Toplam Sipariş Sayısı
+          </v>
+      </c>
+      <c r="C100" t="str">
+        <v>Aylık ortalama sefer sayısı 19,97'dir.</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Hangi yıllarda müşteri bakiyeleri en yüksek seviyeye çıkmış?</v>
+      </c>
+      <c r="B101" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık Cari Hesap Kümülatif Bakiye ve Trend Raporu
+          </v>
+      </c>
+      <c r="C101" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Son 3 yılda özmal araç verimliliği arttı mı azaldı mı</v>
+      </c>
+      <c r="B102" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Operasyon Sonuç Raporu
+          </v>
+      </c>
+      <c r="C102" t="str">
+        <v>Son 3 yılda özmal araç verimliliği artış göstermiştir. 2024 yılında ortalama 0,45 km/ton iken, 2025 yılında bu değer 0,69 km/tona çıkmıştır.</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>2021 yılından bu güne en çok tonaj artışı gösteren şube hangisi, en çok düşüş yaşayan şube hangisi?</v>
+      </c>
+      <c r="B103" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Müşteri Raporu 
+          </v>
+      </c>
+      <c r="C103" t="str">
+        <v>... ve 997 kayıt daha</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>Şu an en riskli 5 müşterim kim? risk = bakiye + vade süresini ödeme olarak geçen müşteri</v>
+      </c>
+      <c r="B104" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Cari Hesap Bakiye ve Yaşlandırma Raporu
+          </v>
+      </c>
+      <c r="C104" t="str">
+        <v>... ve 2 kayıt daha</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Önümüzdeki 1 ayda kredi ve çek ödemelerim toplamda ne kadar olacak?</v>
+      </c>
+      <c r="B105" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi Taksit Ödemeleri Raporu
+          </v>
+      </c>
+      <c r="C105" t="str">
+        <v>Önümüzdeki 1 ay kredi ve çek ödemeleri toplam tutarı 51.220.175,34 TL'dir.</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C105"/>
   </ignoredErrors>
 </worksheet>
 </file>